--- a/tema3/sesion3-1/3-1graficas-ejecucion.xlsx
+++ b/tema3/sesion3-1/3-1graficas-ejecucion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temporal\sesion3-1\sesion3-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo283319_uniovi_es/Documents/Uni/Y2T1/AC/PLs/2ac-pl1-uo283319/tema3/sesion3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="98" documentId="11_B35AB3A019C2408ECC1CD5FF5D835A36C09967C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3392C52-822B-4B99-964B-E2C474C90F69}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="10950"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Accesos" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>X</t>
   </si>
@@ -123,12 +124,15 @@
   </si>
   <si>
     <t>100h</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,29 +579,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AY8" sqref="AY8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="8" width="2.5703125" customWidth="1"/>
-    <col min="9" max="10" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" customWidth="1"/>
+    <col min="7" max="8" width="2.5546875" customWidth="1"/>
+    <col min="9" max="10" width="2.6640625" customWidth="1"/>
     <col min="11" max="71" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:71" ht="25.8" x14ac:dyDescent="0.5">
       <c r="X1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -672,7 +676,7 @@
       <c r="BR3" s="5"/>
       <c r="BS3" s="5"/>
     </row>
-    <row r="4" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -747,7 +751,7 @@
       <c r="BR4" s="5"/>
       <c r="BS4" s="5"/>
     </row>
-    <row r="5" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -767,7 +771,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -783,7 +787,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
+      <c r="AH5" s="4"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
@@ -798,8 +802,10 @@
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
+      <c r="AW5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4"/>
       <c r="AY5" s="5"/>
       <c r="AZ5" s="5"/>
       <c r="BA5" s="5"/>
@@ -822,7 +828,7 @@
       <c r="BR5" s="5"/>
       <c r="BS5" s="5"/>
     </row>
-    <row r="6" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -832,49 +838,63 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="Z6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
+      <c r="AF6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AL6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
+      <c r="AR6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
+      <c r="AX6" s="4"/>
       <c r="AY6" s="5"/>
       <c r="AZ6" s="5"/>
       <c r="BA6" s="5"/>
@@ -897,7 +917,7 @@
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
     </row>
-    <row r="7" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -906,50 +926,64 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="Y7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
+      <c r="AE7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
+      <c r="AK7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
+      <c r="AQ7" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
       <c r="AV7" s="5"/>
       <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
+      <c r="AX7" s="4"/>
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
       <c r="BA7" s="5"/>
@@ -972,7 +1006,7 @@
       <c r="BR7" s="5"/>
       <c r="BS7" s="5"/>
     </row>
-    <row r="8" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -980,51 +1014,67 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="X8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+      <c r="AD8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
+      <c r="AJ8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
+      <c r="AP8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
+      <c r="AT8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="AU8" s="5"/>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
+      <c r="AX8" s="4"/>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
       <c r="BA8" s="5"/>
@@ -1047,50 +1097,64 @@
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
     </row>
-    <row r="9" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
+      <c r="W9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
+      <c r="AO9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
@@ -1099,7 +1163,7 @@
       <c r="AU9" s="5"/>
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
-      <c r="AX9" s="5"/>
+      <c r="AX9" s="4"/>
       <c r="AY9" s="5"/>
       <c r="AZ9" s="5"/>
       <c r="BA9" s="5"/>
@@ -1122,49 +1186,63 @@
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
     </row>
-    <row r="10" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="V10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="AB10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
+      <c r="AH10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
+      <c r="AN10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
@@ -1172,9 +1250,11 @@
       <c r="AS10" s="5"/>
       <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
+      <c r="AV10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
+      <c r="AX10" s="4"/>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5"/>
       <c r="BA10" s="5"/>
@@ -1197,48 +1277,62 @@
       <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
     </row>
-    <row r="11" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
+      <c r="AA11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
+      <c r="AG11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
+      <c r="AM11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -1246,10 +1340,12 @@
       <c r="AR11" s="5"/>
       <c r="AS11" s="5"/>
       <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
+      <c r="AU11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
+      <c r="AX11" s="4"/>
       <c r="AY11" s="5"/>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
@@ -1272,7 +1368,7 @@
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
     </row>
-    <row r="12" spans="1:71" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:71" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1349,7 +1445,7 @@
       <c r="BR12" s="7"/>
       <c r="BS12" s="7"/>
     </row>
-    <row r="13" spans="1:71" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>1</v>
       </c>
@@ -1457,17 +1553,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:71" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" ht="18" x14ac:dyDescent="0.35">
       <c r="AE15" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:71" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:71" ht="25.8" x14ac:dyDescent="0.5">
       <c r="X20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +1638,7 @@
       <c r="BR22" s="3"/>
       <c r="BS22" s="3"/>
     </row>
-    <row r="23" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1713,7 @@
       <c r="BR23" s="3"/>
       <c r="BS23" s="3"/>
     </row>
-    <row r="24" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -1692,7 +1788,7 @@
       <c r="BR24" s="3"/>
       <c r="BS24" s="3"/>
     </row>
-    <row r="25" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>17</v>
       </c>
@@ -1745,7 +1841,9 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
       <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
+      <c r="AY25" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="AZ25" s="5"/>
       <c r="BA25" s="5"/>
       <c r="BB25" s="5"/>
@@ -1767,7 +1865,7 @@
       <c r="BR25" s="5"/>
       <c r="BS25" s="5"/>
     </row>
-    <row r="26" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>18</v>
       </c>
@@ -1842,7 +1940,7 @@
       <c r="BR26" s="5"/>
       <c r="BS26" s="5"/>
     </row>
-    <row r="27" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>19</v>
       </c>
@@ -1889,10 +1987,14 @@
       <c r="AP27" s="5"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
+      <c r="AS27" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
+      <c r="AV27" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
       <c r="AY27" s="5"/>
@@ -1917,7 +2019,7 @@
       <c r="BR27" s="5"/>
       <c r="BS27" s="5"/>
     </row>
-    <row r="28" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +2094,7 @@
       <c r="BR28" s="5"/>
       <c r="BS28" s="5"/>
     </row>
-    <row r="29" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
@@ -2033,10 +2135,14 @@
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
+      <c r="AM29" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
+      <c r="AP29" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
@@ -2067,7 +2173,7 @@
       <c r="BR29" s="5"/>
       <c r="BS29" s="5"/>
     </row>
-    <row r="30" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>22</v>
       </c>
@@ -2142,7 +2248,7 @@
       <c r="BR30" s="5"/>
       <c r="BS30" s="5"/>
     </row>
-    <row r="31" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>23</v>
       </c>
@@ -2177,10 +2283,14 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
+      <c r="AG31" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
+      <c r="AJ31" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
@@ -2217,7 +2327,7 @@
       <c r="BR31" s="5"/>
       <c r="BS31" s="5"/>
     </row>
-    <row r="32" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>24</v>
       </c>
@@ -2292,7 +2402,7 @@
       <c r="BR32" s="5"/>
       <c r="BS32" s="5"/>
     </row>
-    <row r="33" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>25</v>
       </c>
@@ -2321,10 +2431,14 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
+      <c r="AA33" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
+      <c r="AD33" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
@@ -2367,7 +2481,7 @@
       <c r="BR33" s="5"/>
       <c r="BS33" s="5"/>
     </row>
-    <row r="34" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2556,7 @@
       <c r="BR34" s="5"/>
       <c r="BS34" s="5"/>
     </row>
-    <row r="35" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -2465,10 +2579,14 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
+      <c r="U35" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
+      <c r="X35" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
@@ -2517,7 +2635,7 @@
       <c r="BR35" s="5"/>
       <c r="BS35" s="5"/>
     </row>
-    <row r="36" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>28</v>
       </c>
@@ -2592,7 +2710,7 @@
       <c r="BR36" s="5"/>
       <c r="BS36" s="5"/>
     </row>
-    <row r="37" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
@@ -2609,10 +2727,14 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="O37" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -2667,7 +2789,7 @@
       <c r="BR37" s="5"/>
       <c r="BS37" s="5"/>
     </row>
-    <row r="38" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>30</v>
       </c>
@@ -2742,7 +2864,7 @@
       <c r="BR38" s="5"/>
       <c r="BS38" s="5"/>
     </row>
-    <row r="39" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:71" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>31</v>
       </c>
@@ -2753,10 +2875,14 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -2817,15 +2943,19 @@
       <c r="BR39" s="5"/>
       <c r="BS39" s="5"/>
     </row>
-    <row r="40" spans="1:71" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:71" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>0</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -2892,7 +3022,7 @@
       <c r="BR40" s="7"/>
       <c r="BS40" s="7"/>
     </row>
-    <row r="41" spans="1:71" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:71" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9">
         <v>1</v>
       </c>
@@ -3000,7 +3130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:71" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:71" ht="18" x14ac:dyDescent="0.35">
       <c r="AE43" s="10" t="s">
         <v>1</v>
       </c>
